--- a/output/CHARLES_29852634000154.xlsx
+++ b/output/CHARLES_29852634000154.xlsx
@@ -735,10 +735,10 @@
         <v>44165</v>
       </c>
       <c r="B32">
-        <v>0.1278509000000001</v>
+        <v>0.1276295999999999</v>
       </c>
       <c r="C32">
-        <v>0.002085377232844632</v>
+        <v>0.001888754173908547</v>
       </c>
     </row>
   </sheetData>

--- a/output/CHARLES_29852634000154.xlsx
+++ b/output/CHARLES_29852634000154.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>CHARLES DE GAULLE FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,359 +383,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43251</v>
       </c>
       <c r="B2">
-        <v>-0.008741800000000022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43281</v>
       </c>
       <c r="B3">
-        <v>0.0160711</v>
-      </c>
-      <c r="C3">
         <v>0.02503172231009043</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43312</v>
       </c>
       <c r="B4">
-        <v>0.01201659999999993</v>
-      </c>
-      <c r="C4">
         <v>-0.0039903703589248</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43343</v>
       </c>
       <c r="B5">
-        <v>0.03364199999999995</v>
-      </c>
-      <c r="C5">
         <v>0.02136862181904919</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43373</v>
       </c>
       <c r="B6">
-        <v>0.0439756</v>
-      </c>
-      <c r="C6">
         <v>0.009997271782686834</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43404</v>
       </c>
       <c r="B7">
-        <v>0.03770629999999997</v>
-      </c>
-      <c r="C7">
         <v>-0.006005216980166983</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43434</v>
       </c>
       <c r="B8">
-        <v>0.01070410000000011</v>
-      </c>
-      <c r="C8">
         <v>-0.0260210427555464</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43465</v>
       </c>
       <c r="B9">
-        <v>-0.02119689999999996</v>
-      </c>
-      <c r="C9">
         <v>-0.03156314494024515</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43496</v>
       </c>
       <c r="B10">
-        <v>-0.01097079999999995</v>
-      </c>
-      <c r="C10">
         <v>0.01044755579544043</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43524</v>
       </c>
       <c r="B11">
-        <v>-0.008627199999999946</v>
-      </c>
-      <c r="C11">
         <v>0.002369596367832294</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43555</v>
       </c>
       <c r="B12">
-        <v>-0.001624799999999982</v>
-      </c>
-      <c r="C12">
         <v>0.007063336819408406</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43585</v>
       </c>
       <c r="B13">
-        <v>-0.001953899999999953</v>
-      </c>
-      <c r="C13">
         <v>-0.0003296355919096827</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43616</v>
       </c>
       <c r="B14">
-        <v>0.0136155</v>
-      </c>
-      <c r="C14">
         <v>0.01559988060671746</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43646</v>
       </c>
       <c r="B15">
-        <v>0.02832389999999996</v>
-      </c>
-      <c r="C15">
         <v>0.01451082782376556</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43677</v>
       </c>
       <c r="B16">
-        <v>0.03510619999999998</v>
-      </c>
-      <c r="C16">
         <v>0.006595490000767201</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43708</v>
       </c>
       <c r="B17">
-        <v>0.05033219999999994</v>
-      </c>
-      <c r="C17">
         <v>0.01470960177805902</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43738</v>
       </c>
       <c r="B18">
-        <v>0.04598999999999998</v>
-      </c>
-      <c r="C18">
         <v>-0.004134120614411319</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43769</v>
       </c>
       <c r="B19">
-        <v>0.05393139999999996</v>
-      </c>
-      <c r="C19">
         <v>0.007592233195345965</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43799</v>
       </c>
       <c r="B20">
-        <v>0.04658260000000003</v>
-      </c>
-      <c r="C20">
         <v>-0.006972749839315839</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43830</v>
       </c>
       <c r="B21">
-        <v>0.05322690000000008</v>
-      </c>
-      <c r="C21">
         <v>0.006348567232056013</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43861</v>
       </c>
       <c r="B22">
-        <v>0.05472030000000006</v>
-      </c>
-      <c r="C22">
         <v>0.001417928083682574</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43890</v>
       </c>
       <c r="B23">
-        <v>0.06690930000000006</v>
-      </c>
-      <c r="C23">
         <v>0.0115566183755067</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43921</v>
       </c>
       <c r="B24">
-        <v>0.06896649999999993</v>
-      </c>
-      <c r="C24">
         <v>0.001928186397850196</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43951</v>
       </c>
       <c r="B25">
-        <v>0.08188240000000002</v>
-      </c>
-      <c r="C25">
         <v>0.01208260502083092</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43982</v>
       </c>
       <c r="B26">
-        <v>0.07140009999999997</v>
-      </c>
-      <c r="C26">
         <v>-0.009688945859550047</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44012</v>
       </c>
       <c r="B27">
-        <v>0.08403690000000008</v>
-      </c>
-      <c r="C27">
         <v>0.01179466009010088</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44043</v>
       </c>
       <c r="B28">
-        <v>0.09417180000000003</v>
-      </c>
-      <c r="C28">
         <v>0.009349220492401944</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44074</v>
       </c>
       <c r="B29">
-        <v>0.1104350999999999</v>
-      </c>
-      <c r="C29">
         <v>0.01486357078477063</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>44104</v>
       </c>
       <c r="B30">
-        <v>0.1088585</v>
-      </c>
-      <c r="C30">
         <v>-0.00141980382284379</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44135</v>
       </c>
       <c r="B31">
-        <v>0.1255037999999999</v>
-      </c>
-      <c r="C31">
         <v>0.01501120296232572</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44165</v>
       </c>
       <c r="B32">
-        <v>0.1276295999999999</v>
-      </c>
-      <c r="C32">
-        <v>0.001888754173908547</v>
+        <v>-0.005361687805940818</v>
       </c>
     </row>
   </sheetData>
